--- a/JupyterNotebooks/AveragedIntensites/GossA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW15.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GossA-HW15.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GossA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,10 +1069,10 @@
         <v>0.9872412484742678</v>
       </c>
       <c r="D13">
-        <v>0.9882924057559366</v>
+        <v>0.9882924057559362</v>
       </c>
       <c r="E13">
-        <v>0.9941439861373852</v>
+        <v>0.9941439861373853</v>
       </c>
       <c r="F13">
         <v>0.991358809267594</v>
@@ -1081,7 +1081,7 @@
         <v>0.9872412484742678</v>
       </c>
       <c r="H13">
-        <v>0.9882924057559366</v>
+        <v>0.9882924057559362</v>
       </c>
       <c r="I13">
         <v>0.9923335398136407</v>
@@ -1190,13 +1190,13 @@
         <v>0.9835221457838239</v>
       </c>
       <c r="K15">
-        <v>0.9669827382172723</v>
+        <v>0.9669827382172724</v>
       </c>
       <c r="L15">
         <v>1.052279441326005</v>
       </c>
       <c r="M15">
-        <v>0.9786264278300603</v>
+        <v>0.9786264278300602</v>
       </c>
       <c r="N15">
         <v>1.050737255313927</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>1.004125977651326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.451569371944928</v>
+      </c>
+      <c r="D16">
+        <v>1.234423402731494</v>
+      </c>
+      <c r="E16">
+        <v>1.060443440083739</v>
+      </c>
+      <c r="F16">
+        <v>0.8274970482361562</v>
+      </c>
+      <c r="G16">
+        <v>1.451569371944928</v>
+      </c>
+      <c r="H16">
+        <v>1.234423402731494</v>
+      </c>
+      <c r="I16">
+        <v>1.068329850452053</v>
+      </c>
+      <c r="J16">
+        <v>0.7999077162236702</v>
+      </c>
+      <c r="K16">
+        <v>1.000829744036772</v>
+      </c>
+      <c r="L16">
+        <v>0.9204276013078633</v>
+      </c>
+      <c r="M16">
+        <v>1.451569371944928</v>
+      </c>
+      <c r="N16">
+        <v>1.147433421407617</v>
+      </c>
+      <c r="O16">
+        <v>1.143483315749079</v>
+      </c>
+      <c r="P16">
+        <v>1.045428521877084</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.451569371944928</v>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW15.xlsx
@@ -1072,10 +1072,10 @@
         <v>0.9872412484742678</v>
       </c>
       <c r="D13">
-        <v>0.9882924057559362</v>
+        <v>0.9882924057559366</v>
       </c>
       <c r="E13">
-        <v>0.9941439861373853</v>
+        <v>0.9941439861373852</v>
       </c>
       <c r="F13">
         <v>0.991358809267594</v>
@@ -1084,7 +1084,7 @@
         <v>0.9872412484742678</v>
       </c>
       <c r="H13">
-        <v>0.9882924057559362</v>
+        <v>0.9882924057559366</v>
       </c>
       <c r="I13">
         <v>0.9923335398136407</v>
@@ -1193,13 +1193,13 @@
         <v>0.9835221457838239</v>
       </c>
       <c r="K15">
-        <v>0.9669827382172724</v>
+        <v>0.9669827382172723</v>
       </c>
       <c r="L15">
         <v>1.052279441326005</v>
       </c>
       <c r="M15">
-        <v>0.9786264278300602</v>
+        <v>0.9786264278300603</v>
       </c>
       <c r="N15">
         <v>1.050737255313927</v>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW15.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.140872</v>
+        <v>1.451569371944928</v>
       </c>
       <c r="D10">
-        <v>1.523624000000005</v>
+        <v>1.234423402731494</v>
       </c>
       <c r="E10">
-        <v>2.213771999999995</v>
+        <v>1.060443440083739</v>
       </c>
       <c r="F10">
-        <v>0.6671559999999996</v>
+        <v>0.8274970482361562</v>
       </c>
       <c r="G10">
-        <v>0.140872</v>
+        <v>1.451569371944928</v>
       </c>
       <c r="H10">
-        <v>1.523624000000005</v>
+        <v>1.234423402731494</v>
       </c>
       <c r="I10">
-        <v>1.26814</v>
+        <v>1.068329850452053</v>
       </c>
       <c r="J10">
-        <v>1.256083999999999</v>
+        <v>0.7999077162236702</v>
       </c>
       <c r="K10">
-        <v>0.4189959999999995</v>
+        <v>1.000829744036772</v>
       </c>
       <c r="L10">
-        <v>1.069904</v>
+        <v>0.9204276013078633</v>
       </c>
       <c r="M10">
-        <v>0.140872</v>
+        <v>1.451569371944928</v>
       </c>
       <c r="N10">
-        <v>1.868698</v>
+        <v>1.147433421407617</v>
       </c>
       <c r="O10">
-        <v>1.136356</v>
+        <v>1.143483315749079</v>
       </c>
       <c r="P10">
-        <v>1.0698185</v>
+        <v>1.045428521877084</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.22</v>
+        <v>0.07819509279137359</v>
       </c>
       <c r="D11">
-        <v>0.01</v>
+        <v>2.463641727999528</v>
       </c>
       <c r="E11">
-        <v>3.434450000000003</v>
+        <v>1.115807572074335</v>
       </c>
       <c r="F11">
-        <v>0.33</v>
+        <v>0.9858498613454745</v>
       </c>
       <c r="G11">
-        <v>0.22</v>
+        <v>0.07819509279137359</v>
       </c>
       <c r="H11">
-        <v>0.01</v>
+        <v>2.463641727999528</v>
       </c>
       <c r="I11">
-        <v>2.008475000000004</v>
+        <v>0.6592043118809023</v>
       </c>
       <c r="J11">
-        <v>1.262062500000001</v>
+        <v>1.348688157706468</v>
       </c>
       <c r="K11">
-        <v>0.45</v>
+        <v>0.4348189935736123</v>
       </c>
       <c r="L11">
-        <v>0.17</v>
+        <v>1.719401734951948</v>
       </c>
       <c r="M11">
-        <v>0.22</v>
+        <v>0.07819509279137359</v>
       </c>
       <c r="N11">
-        <v>1.722225000000001</v>
+        <v>1.789724650036931</v>
       </c>
       <c r="O11">
-        <v>0.9986125000000008</v>
+        <v>1.160873563552678</v>
       </c>
       <c r="P11">
-        <v>0.985623437500001</v>
+        <v>1.100700931540455</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5584868202496011</v>
+        <v>0.07778761664708411</v>
       </c>
       <c r="D12">
-        <v>0.4233949770752028</v>
+        <v>2.469229007944313</v>
       </c>
       <c r="E12">
-        <v>2.385447859916797</v>
+        <v>1.10941712867094</v>
       </c>
       <c r="F12">
-        <v>0.6103961908224003</v>
+        <v>0.9878230504484717</v>
       </c>
       <c r="G12">
-        <v>0.5584868202496011</v>
+        <v>0.07778761664708411</v>
       </c>
       <c r="H12">
-        <v>0.4233949770752028</v>
+        <v>2.469229007944313</v>
       </c>
       <c r="I12">
-        <v>1.570885197926403</v>
+        <v>0.6550783601072624</v>
       </c>
       <c r="J12">
-        <v>1.1422576361472</v>
+        <v>1.349342599568315</v>
       </c>
       <c r="K12">
-        <v>0.6843422908416021</v>
+        <v>0.434856367215113</v>
       </c>
       <c r="L12">
-        <v>0.5170109890560014</v>
+        <v>1.723588711399783</v>
       </c>
       <c r="M12">
-        <v>0.5584941737984013</v>
+        <v>0.07778761664708411</v>
       </c>
       <c r="N12">
-        <v>1.404421418496</v>
+        <v>1.789323068307626</v>
       </c>
       <c r="O12">
-        <v>0.9944314620160002</v>
+        <v>1.161064200927702</v>
       </c>
       <c r="P12">
-        <v>0.9865277452544008</v>
+        <v>1.10089035525016</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9872412484742678</v>
+        <v>0.07810873119124007</v>
       </c>
       <c r="D13">
-        <v>0.9882924057559366</v>
+        <v>2.463901420304297</v>
       </c>
       <c r="E13">
-        <v>0.9941439861373852</v>
+        <v>1.114252735605906</v>
       </c>
       <c r="F13">
-        <v>0.991358809267594</v>
+        <v>0.9864780043005003</v>
       </c>
       <c r="G13">
-        <v>0.9872412484742678</v>
+        <v>0.07810873119124007</v>
       </c>
       <c r="H13">
-        <v>0.9882924057559366</v>
+        <v>2.463901420304297</v>
       </c>
       <c r="I13">
-        <v>0.9923335398136407</v>
+        <v>0.6579346702500996</v>
       </c>
       <c r="J13">
-        <v>0.9931318867098222</v>
+        <v>1.349228059278089</v>
       </c>
       <c r="K13">
-        <v>0.9911795276129675</v>
+        <v>0.4349534686093818</v>
       </c>
       <c r="L13">
-        <v>0.9871903034014319</v>
+        <v>1.720253947873153</v>
       </c>
       <c r="M13">
-        <v>0.9872227522339166</v>
+        <v>0.07810873119124007</v>
       </c>
       <c r="N13">
-        <v>0.9912181959466608</v>
+        <v>1.789077077955102</v>
       </c>
       <c r="O13">
-        <v>0.9902591124087958</v>
+        <v>1.160685222850486</v>
       </c>
       <c r="P13">
-        <v>0.9906089633966306</v>
+        <v>1.100638879676583</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.045522839282462</v>
+        <v>0.140872</v>
       </c>
       <c r="D14">
-        <v>1.081470585621645</v>
+        <v>1.523624000000005</v>
       </c>
       <c r="E14">
-        <v>0.9778878214107</v>
+        <v>2.213771999999995</v>
       </c>
       <c r="F14">
-        <v>0.9706658955997199</v>
+        <v>0.6671559999999996</v>
       </c>
       <c r="G14">
-        <v>1.045522839282462</v>
+        <v>0.140872</v>
       </c>
       <c r="H14">
-        <v>1.081470585621645</v>
+        <v>1.523624000000005</v>
       </c>
       <c r="I14">
-        <v>0.9676408401338386</v>
+        <v>1.26814</v>
       </c>
       <c r="J14">
-        <v>0.9917658690471407</v>
+        <v>1.256083999999999</v>
       </c>
       <c r="K14">
-        <v>0.9693686220836593</v>
+        <v>0.4189959999999995</v>
       </c>
       <c r="L14">
-        <v>1.003615532123211</v>
+        <v>1.069904</v>
       </c>
       <c r="M14">
-        <v>1.045522839282462</v>
+        <v>0.140872</v>
       </c>
       <c r="N14">
-        <v>1.029679203516172</v>
+        <v>1.868698</v>
       </c>
       <c r="O14">
-        <v>1.018886785478631</v>
+        <v>1.136356</v>
       </c>
       <c r="P14">
-        <v>1.000992250662797</v>
+        <v>1.0698185</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9786157634602403</v>
+        <v>0.22</v>
       </c>
       <c r="D15">
-        <v>1.130027053825561</v>
+        <v>0.01</v>
       </c>
       <c r="E15">
-        <v>0.9714474568022929</v>
+        <v>3.434450000000003</v>
       </c>
       <c r="F15">
-        <v>0.9928516363778425</v>
+        <v>0.33</v>
       </c>
       <c r="G15">
-        <v>0.9786157634602403</v>
+        <v>0.22</v>
       </c>
       <c r="H15">
-        <v>1.130027053825561</v>
+        <v>0.01</v>
       </c>
       <c r="I15">
-        <v>0.9572815854175666</v>
+        <v>2.008475000000004</v>
       </c>
       <c r="J15">
-        <v>0.9835221457838239</v>
+        <v>1.262062500000001</v>
       </c>
       <c r="K15">
-        <v>0.9669827382172723</v>
+        <v>0.45</v>
       </c>
       <c r="L15">
-        <v>1.052279441326005</v>
+        <v>0.17</v>
       </c>
       <c r="M15">
-        <v>0.9786264278300603</v>
+        <v>0.22</v>
       </c>
       <c r="N15">
-        <v>1.050737255313927</v>
+        <v>1.722225000000001</v>
       </c>
       <c r="O15">
-        <v>1.018235477616484</v>
+        <v>0.9986125000000008</v>
       </c>
       <c r="P15">
-        <v>1.004125977651326</v>
+        <v>0.985623437500001</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.451569371944928</v>
+        <v>0.5584868202496011</v>
       </c>
       <c r="D16">
-        <v>1.234423402731494</v>
+        <v>0.4233949770752028</v>
       </c>
       <c r="E16">
-        <v>1.060443440083739</v>
+        <v>2.385447859916797</v>
       </c>
       <c r="F16">
-        <v>0.8274970482361562</v>
+        <v>0.6103961908224003</v>
       </c>
       <c r="G16">
-        <v>1.451569371944928</v>
+        <v>0.5584868202496011</v>
       </c>
       <c r="H16">
-        <v>1.234423402731494</v>
+        <v>0.4233949770752028</v>
       </c>
       <c r="I16">
-        <v>1.068329850452053</v>
+        <v>1.570885197926403</v>
       </c>
       <c r="J16">
-        <v>0.7999077162236702</v>
+        <v>1.1422576361472</v>
       </c>
       <c r="K16">
-        <v>1.000829744036772</v>
+        <v>0.6843422908416021</v>
       </c>
       <c r="L16">
-        <v>0.9204276013078633</v>
+        <v>0.5170109890560014</v>
       </c>
       <c r="M16">
-        <v>1.451569371944928</v>
+        <v>0.5584941737984013</v>
       </c>
       <c r="N16">
-        <v>1.147433421407617</v>
+        <v>1.404421418496</v>
       </c>
       <c r="O16">
-        <v>1.143483315749079</v>
+        <v>0.9944314620160002</v>
       </c>
       <c r="P16">
-        <v>1.045428521877084</v>
+        <v>0.9865277452544008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9872412484742678</v>
+      </c>
+      <c r="D17">
+        <v>0.9882924057559362</v>
+      </c>
+      <c r="E17">
+        <v>0.9941439861373853</v>
+      </c>
+      <c r="F17">
+        <v>0.991358809267594</v>
+      </c>
+      <c r="G17">
+        <v>0.9872412484742678</v>
+      </c>
+      <c r="H17">
+        <v>0.9882924057559362</v>
+      </c>
+      <c r="I17">
+        <v>0.9923335398136407</v>
+      </c>
+      <c r="J17">
+        <v>0.9931318867098222</v>
+      </c>
+      <c r="K17">
+        <v>0.9911795276129675</v>
+      </c>
+      <c r="L17">
+        <v>0.9871903034014319</v>
+      </c>
+      <c r="M17">
+        <v>0.9872227522339166</v>
+      </c>
+      <c r="N17">
+        <v>0.9912181959466608</v>
+      </c>
+      <c r="O17">
+        <v>0.9902591124087958</v>
+      </c>
+      <c r="P17">
+        <v>0.9906089633966306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.045522839282462</v>
+      </c>
+      <c r="D18">
+        <v>1.081470585621645</v>
+      </c>
+      <c r="E18">
+        <v>0.9778878214107</v>
+      </c>
+      <c r="F18">
+        <v>0.9706658955997199</v>
+      </c>
+      <c r="G18">
+        <v>1.045522839282462</v>
+      </c>
+      <c r="H18">
+        <v>1.081470585621645</v>
+      </c>
+      <c r="I18">
+        <v>0.9676408401338386</v>
+      </c>
+      <c r="J18">
+        <v>0.9917658690471407</v>
+      </c>
+      <c r="K18">
+        <v>0.9693686220836593</v>
+      </c>
+      <c r="L18">
+        <v>1.003615532123211</v>
+      </c>
+      <c r="M18">
+        <v>1.045522839282462</v>
+      </c>
+      <c r="N18">
+        <v>1.029679203516172</v>
+      </c>
+      <c r="O18">
+        <v>1.018886785478631</v>
+      </c>
+      <c r="P18">
+        <v>1.000992250662797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9786157634602403</v>
+      </c>
+      <c r="D19">
+        <v>1.130027053825561</v>
+      </c>
+      <c r="E19">
+        <v>0.9714474568022929</v>
+      </c>
+      <c r="F19">
+        <v>0.9928516363778425</v>
+      </c>
+      <c r="G19">
+        <v>0.9786157634602403</v>
+      </c>
+      <c r="H19">
+        <v>1.130027053825561</v>
+      </c>
+      <c r="I19">
+        <v>0.9572815854175666</v>
+      </c>
+      <c r="J19">
+        <v>0.9835221457838239</v>
+      </c>
+      <c r="K19">
+        <v>0.9669827382172724</v>
+      </c>
+      <c r="L19">
+        <v>1.052279441326005</v>
+      </c>
+      <c r="M19">
+        <v>0.9786264278300602</v>
+      </c>
+      <c r="N19">
+        <v>1.050737255313927</v>
+      </c>
+      <c r="O19">
+        <v>1.018235477616484</v>
+      </c>
+      <c r="P19">
+        <v>1.004125977651326</v>
       </c>
     </row>
   </sheetData>
